--- a/HAWC2/IEA-22-280-RWT-Monopile/htc/DLC/dlc13_iec61400-1ed3.xlsx
+++ b/HAWC2/IEA-22-280-RWT-Monopile/htc/DLC/dlc13_iec61400-1ed3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkba\Desktop\iea_22mw_rwt_dlb\02_local\htc\DLC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkba\Desktop\IEA_22MW_RWT_DLB\02_local\htc\DLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1345,13 +1345,13 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir350_s7001</v>
+        <v>dlc13_wsp03_wdir352_s7001</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
@@ -1453,13 +1453,13 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir350_s8001</v>
+        <v>dlc13_wsp03_wdir352_s8001</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
@@ -1561,13 +1561,13 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir350_s9001</v>
+        <v>dlc13_wsp03_wdir352_s9001</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
@@ -1669,13 +1669,13 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir350_s10001</v>
+        <v>dlc13_wsp03_wdir352_s10001</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
@@ -1777,13 +1777,13 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir350_s11001</v>
+        <v>dlc13_wsp03_wdir352_s11001</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
@@ -1885,13 +1885,13 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir350_s12001</v>
+        <v>dlc13_wsp03_wdir352_s12001</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
@@ -1993,13 +1993,13 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir010_s13001</v>
+        <v>dlc13_wsp03_wdir008_s13001</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
@@ -2101,13 +2101,13 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir010_s14001</v>
+        <v>dlc13_wsp03_wdir008_s14001</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
@@ -2209,13 +2209,13 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir010_s15001</v>
+        <v>dlc13_wsp03_wdir008_s15001</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
@@ -2317,13 +2317,13 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir010_s16001</v>
+        <v>dlc13_wsp03_wdir008_s16001</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
@@ -2425,13 +2425,13 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir010_s17001</v>
+        <v>dlc13_wsp03_wdir008_s17001</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
@@ -2533,13 +2533,13 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp03_wdir010_s18001</v>
+        <v>dlc13_wsp03_wdir008_s18001</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
@@ -3288,13 +3288,13 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir350_s7002</v>
+        <v>dlc13_wsp04_wdir352_s7002</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G26">
         <f t="shared" si="14"/>
@@ -3396,13 +3396,13 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir350_s8002</v>
+        <v>dlc13_wsp04_wdir352_s8002</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G27">
         <f t="shared" si="14"/>
@@ -3504,13 +3504,13 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir350_s9002</v>
+        <v>dlc13_wsp04_wdir352_s9002</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
       <c r="F28">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G28">
         <f t="shared" si="14"/>
@@ -3612,13 +3612,13 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir350_s10002</v>
+        <v>dlc13_wsp04_wdir352_s10002</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G29">
         <f t="shared" si="14"/>
@@ -3720,13 +3720,13 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir350_s11002</v>
+        <v>dlc13_wsp04_wdir352_s11002</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="F30">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G30">
         <f t="shared" si="14"/>
@@ -3828,13 +3828,13 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir350_s12002</v>
+        <v>dlc13_wsp04_wdir352_s12002</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G31">
         <f t="shared" si="14"/>
@@ -3936,13 +3936,13 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir010_s13002</v>
+        <v>dlc13_wsp04_wdir008_s13002</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <f t="shared" si="14"/>
@@ -4044,13 +4044,13 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir010_s14002</v>
+        <v>dlc13_wsp04_wdir008_s14002</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <f t="shared" si="14"/>
@@ -4152,13 +4152,13 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir010_s15002</v>
+        <v>dlc13_wsp04_wdir008_s15002</v>
       </c>
       <c r="E34">
         <v>4</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <f t="shared" si="14"/>
@@ -4260,13 +4260,13 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir010_s16002</v>
+        <v>dlc13_wsp04_wdir008_s16002</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <f t="shared" si="14"/>
@@ -4368,13 +4368,13 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir010_s17002</v>
+        <v>dlc13_wsp04_wdir008_s17002</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <f t="shared" si="14"/>
@@ -4476,13 +4476,13 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp04_wdir010_s18002</v>
+        <v>dlc13_wsp04_wdir008_s18002</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <f t="shared" si="14"/>
@@ -5231,13 +5231,13 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir350_s7003</v>
+        <v>dlc13_wsp05_wdir352_s7003</v>
       </c>
       <c r="E44">
         <v>5</v>
       </c>
       <c r="F44">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G44">
         <f t="shared" si="24"/>
@@ -5339,13 +5339,13 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir350_s8003</v>
+        <v>dlc13_wsp05_wdir352_s8003</v>
       </c>
       <c r="E45">
         <v>5</v>
       </c>
       <c r="F45">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G45">
         <f t="shared" si="24"/>
@@ -5447,13 +5447,13 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir350_s9003</v>
+        <v>dlc13_wsp05_wdir352_s9003</v>
       </c>
       <c r="E46">
         <v>5</v>
       </c>
       <c r="F46">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G46">
         <f t="shared" si="24"/>
@@ -5555,13 +5555,13 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir350_s10003</v>
+        <v>dlc13_wsp05_wdir352_s10003</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="F47">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G47">
         <f t="shared" si="24"/>
@@ -5663,13 +5663,13 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir350_s11003</v>
+        <v>dlc13_wsp05_wdir352_s11003</v>
       </c>
       <c r="E48">
         <v>5</v>
       </c>
       <c r="F48">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G48">
         <f t="shared" si="24"/>
@@ -5771,13 +5771,13 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir350_s12003</v>
+        <v>dlc13_wsp05_wdir352_s12003</v>
       </c>
       <c r="E49">
         <v>5</v>
       </c>
       <c r="F49">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G49">
         <f t="shared" si="24"/>
@@ -5879,13 +5879,13 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir010_s13003</v>
+        <v>dlc13_wsp05_wdir008_s13003</v>
       </c>
       <c r="E50">
         <v>5</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G50">
         <f t="shared" si="24"/>
@@ -5987,13 +5987,13 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir010_s14003</v>
+        <v>dlc13_wsp05_wdir008_s14003</v>
       </c>
       <c r="E51">
         <v>5</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G51">
         <f t="shared" si="24"/>
@@ -6095,13 +6095,13 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir010_s15003</v>
+        <v>dlc13_wsp05_wdir008_s15003</v>
       </c>
       <c r="E52">
         <v>5</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G52">
         <f t="shared" si="24"/>
@@ -6203,13 +6203,13 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir010_s16003</v>
+        <v>dlc13_wsp05_wdir008_s16003</v>
       </c>
       <c r="E53">
         <v>5</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G53">
         <f t="shared" si="24"/>
@@ -6311,13 +6311,13 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir010_s17003</v>
+        <v>dlc13_wsp05_wdir008_s17003</v>
       </c>
       <c r="E54">
         <v>5</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G54">
         <f t="shared" si="24"/>
@@ -6419,13 +6419,13 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp05_wdir010_s18003</v>
+        <v>dlc13_wsp05_wdir008_s18003</v>
       </c>
       <c r="E55">
         <v>5</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G55">
         <f t="shared" si="24"/>
@@ -7174,13 +7174,13 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp06_wdir350_s7004</v>
+        <v>dlc13_wsp06_wdir352_s7004</v>
       </c>
       <c r="E62">
         <v>6</v>
       </c>
       <c r="F62">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G62">
         <f t="shared" si="34"/>
@@ -7282,13 +7282,13 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp06_wdir350_s8004</v>
+        <v>dlc13_wsp06_wdir352_s8004</v>
       </c>
       <c r="E63">
         <v>6</v>
       </c>
       <c r="F63">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G63">
         <f t="shared" si="34"/>
@@ -7390,13 +7390,13 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp06_wdir350_s9004</v>
+        <v>dlc13_wsp06_wdir352_s9004</v>
       </c>
       <c r="E64">
         <v>6</v>
       </c>
       <c r="F64">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G64">
         <f t="shared" si="34"/>
@@ -7498,13 +7498,13 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp06_wdir350_s10004</v>
+        <v>dlc13_wsp06_wdir352_s10004</v>
       </c>
       <c r="E65">
         <v>6</v>
       </c>
       <c r="F65">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G65">
         <f t="shared" si="34"/>
@@ -7606,13 +7606,13 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
-        <v>dlc13_wsp06_wdir350_s11004</v>
+        <v>dlc13_wsp06_wdir352_s11004</v>
       </c>
       <c r="E66">
         <v>6</v>
       </c>
       <c r="F66">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G66">
         <f t="shared" si="34"/>
@@ -7714,13 +7714,13 @@
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D130" si="40">"dlc13_wsp"&amp;TEXT(E67,"00")&amp;"_wdir"&amp;TEXT(IF(F67&lt;0,F67+360,F67),"000")&amp;"_s"&amp;TEXT(G67,"0000")</f>
-        <v>dlc13_wsp06_wdir350_s12004</v>
+        <v>dlc13_wsp06_wdir352_s12004</v>
       </c>
       <c r="E67">
         <v>6</v>
       </c>
       <c r="F67">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G67">
         <f t="shared" si="34"/>
@@ -7822,13 +7822,13 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp06_wdir010_s13004</v>
+        <v>dlc13_wsp06_wdir008_s13004</v>
       </c>
       <c r="E68">
         <v>6</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G68">
         <f t="shared" si="34"/>
@@ -7930,13 +7930,13 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp06_wdir010_s14004</v>
+        <v>dlc13_wsp06_wdir008_s14004</v>
       </c>
       <c r="E69">
         <v>6</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G69">
         <f t="shared" si="34"/>
@@ -8038,13 +8038,13 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp06_wdir010_s15004</v>
+        <v>dlc13_wsp06_wdir008_s15004</v>
       </c>
       <c r="E70">
         <v>6</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G70">
         <f t="shared" si="34"/>
@@ -8146,13 +8146,13 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp06_wdir010_s16004</v>
+        <v>dlc13_wsp06_wdir008_s16004</v>
       </c>
       <c r="E71">
         <v>6</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G71">
         <f t="shared" si="34"/>
@@ -8254,13 +8254,13 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp06_wdir010_s17004</v>
+        <v>dlc13_wsp06_wdir008_s17004</v>
       </c>
       <c r="E72">
         <v>6</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G72">
         <f t="shared" si="34"/>
@@ -8362,13 +8362,13 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp06_wdir010_s18004</v>
+        <v>dlc13_wsp06_wdir008_s18004</v>
       </c>
       <c r="E73">
         <v>6</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G73">
         <f t="shared" si="34"/>
@@ -9117,13 +9117,13 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir350_s7005</v>
+        <v>dlc13_wsp07_wdir352_s7005</v>
       </c>
       <c r="E80">
         <v>7</v>
       </c>
       <c r="F80">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G80">
         <f t="shared" si="47"/>
@@ -9225,13 +9225,13 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir350_s8005</v>
+        <v>dlc13_wsp07_wdir352_s8005</v>
       </c>
       <c r="E81">
         <v>7</v>
       </c>
       <c r="F81">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G81">
         <f t="shared" si="47"/>
@@ -9333,13 +9333,13 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir350_s9005</v>
+        <v>dlc13_wsp07_wdir352_s9005</v>
       </c>
       <c r="E82">
         <v>7</v>
       </c>
       <c r="F82">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G82">
         <f t="shared" si="47"/>
@@ -9441,13 +9441,13 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir350_s10005</v>
+        <v>dlc13_wsp07_wdir352_s10005</v>
       </c>
       <c r="E83">
         <v>7</v>
       </c>
       <c r="F83">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G83">
         <f t="shared" si="47"/>
@@ -9549,13 +9549,13 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir350_s11005</v>
+        <v>dlc13_wsp07_wdir352_s11005</v>
       </c>
       <c r="E84">
         <v>7</v>
       </c>
       <c r="F84">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G84">
         <f t="shared" si="47"/>
@@ -9657,13 +9657,13 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir350_s12005</v>
+        <v>dlc13_wsp07_wdir352_s12005</v>
       </c>
       <c r="E85">
         <v>7</v>
       </c>
       <c r="F85">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G85">
         <f t="shared" si="47"/>
@@ -9765,13 +9765,13 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir010_s13005</v>
+        <v>dlc13_wsp07_wdir008_s13005</v>
       </c>
       <c r="E86">
         <v>7</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G86">
         <f t="shared" si="47"/>
@@ -9873,13 +9873,13 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir010_s14005</v>
+        <v>dlc13_wsp07_wdir008_s14005</v>
       </c>
       <c r="E87">
         <v>7</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G87">
         <f t="shared" si="47"/>
@@ -9981,13 +9981,13 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir010_s15005</v>
+        <v>dlc13_wsp07_wdir008_s15005</v>
       </c>
       <c r="E88">
         <v>7</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G88">
         <f t="shared" si="47"/>
@@ -10089,13 +10089,13 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir010_s16005</v>
+        <v>dlc13_wsp07_wdir008_s16005</v>
       </c>
       <c r="E89">
         <v>7</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G89">
         <f t="shared" si="47"/>
@@ -10197,13 +10197,13 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir010_s17005</v>
+        <v>dlc13_wsp07_wdir008_s17005</v>
       </c>
       <c r="E90">
         <v>7</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G90">
         <f t="shared" si="47"/>
@@ -10305,13 +10305,13 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp07_wdir010_s18005</v>
+        <v>dlc13_wsp07_wdir008_s18005</v>
       </c>
       <c r="E91">
         <v>7</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G91">
         <f t="shared" si="47"/>
@@ -11060,13 +11060,13 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir350_s7006</v>
+        <v>dlc13_wsp08_wdir352_s7006</v>
       </c>
       <c r="E98">
         <v>8</v>
       </c>
       <c r="F98">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G98">
         <f t="shared" si="57"/>
@@ -11168,13 +11168,13 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir350_s8006</v>
+        <v>dlc13_wsp08_wdir352_s8006</v>
       </c>
       <c r="E99">
         <v>8</v>
       </c>
       <c r="F99">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G99">
         <f t="shared" si="57"/>
@@ -11276,13 +11276,13 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir350_s9006</v>
+        <v>dlc13_wsp08_wdir352_s9006</v>
       </c>
       <c r="E100">
         <v>8</v>
       </c>
       <c r="F100">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G100">
         <f t="shared" si="57"/>
@@ -11384,13 +11384,13 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir350_s10006</v>
+        <v>dlc13_wsp08_wdir352_s10006</v>
       </c>
       <c r="E101">
         <v>8</v>
       </c>
       <c r="F101">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G101">
         <f t="shared" si="57"/>
@@ -11492,13 +11492,13 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir350_s11006</v>
+        <v>dlc13_wsp08_wdir352_s11006</v>
       </c>
       <c r="E102">
         <v>8</v>
       </c>
       <c r="F102">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G102">
         <f t="shared" si="57"/>
@@ -11600,13 +11600,13 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir350_s12006</v>
+        <v>dlc13_wsp08_wdir352_s12006</v>
       </c>
       <c r="E103">
         <v>8</v>
       </c>
       <c r="F103">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G103">
         <f t="shared" si="57"/>
@@ -11708,13 +11708,13 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir010_s13006</v>
+        <v>dlc13_wsp08_wdir008_s13006</v>
       </c>
       <c r="E104">
         <v>8</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G104">
         <f t="shared" si="57"/>
@@ -11816,13 +11816,13 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir010_s14006</v>
+        <v>dlc13_wsp08_wdir008_s14006</v>
       </c>
       <c r="E105">
         <v>8</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G105">
         <f t="shared" si="57"/>
@@ -11924,13 +11924,13 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir010_s15006</v>
+        <v>dlc13_wsp08_wdir008_s15006</v>
       </c>
       <c r="E106">
         <v>8</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G106">
         <f t="shared" si="57"/>
@@ -12032,13 +12032,13 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir010_s16006</v>
+        <v>dlc13_wsp08_wdir008_s16006</v>
       </c>
       <c r="E107">
         <v>8</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G107">
         <f t="shared" si="57"/>
@@ -12140,13 +12140,13 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir010_s17006</v>
+        <v>dlc13_wsp08_wdir008_s17006</v>
       </c>
       <c r="E108">
         <v>8</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G108">
         <f t="shared" si="57"/>
@@ -12248,13 +12248,13 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp08_wdir010_s18006</v>
+        <v>dlc13_wsp08_wdir008_s18006</v>
       </c>
       <c r="E109">
         <v>8</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G109">
         <f t="shared" si="57"/>
@@ -13003,13 +13003,13 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir350_s7007</v>
+        <v>dlc13_wsp09_wdir352_s7007</v>
       </c>
       <c r="E116">
         <v>9</v>
       </c>
       <c r="F116">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G116">
         <f t="shared" si="67"/>
@@ -13111,13 +13111,13 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir350_s8007</v>
+        <v>dlc13_wsp09_wdir352_s8007</v>
       </c>
       <c r="E117">
         <v>9</v>
       </c>
       <c r="F117">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G117">
         <f t="shared" si="67"/>
@@ -13219,13 +13219,13 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir350_s9007</v>
+        <v>dlc13_wsp09_wdir352_s9007</v>
       </c>
       <c r="E118">
         <v>9</v>
       </c>
       <c r="F118">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G118">
         <f t="shared" si="67"/>
@@ -13327,13 +13327,13 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir350_s10007</v>
+        <v>dlc13_wsp09_wdir352_s10007</v>
       </c>
       <c r="E119">
         <v>9</v>
       </c>
       <c r="F119">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G119">
         <f t="shared" si="67"/>
@@ -13435,13 +13435,13 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir350_s11007</v>
+        <v>dlc13_wsp09_wdir352_s11007</v>
       </c>
       <c r="E120">
         <v>9</v>
       </c>
       <c r="F120">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G120">
         <f t="shared" si="67"/>
@@ -13543,13 +13543,13 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir350_s12007</v>
+        <v>dlc13_wsp09_wdir352_s12007</v>
       </c>
       <c r="E121">
         <v>9</v>
       </c>
       <c r="F121">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G121">
         <f t="shared" si="67"/>
@@ -13651,13 +13651,13 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir010_s13007</v>
+        <v>dlc13_wsp09_wdir008_s13007</v>
       </c>
       <c r="E122">
         <v>9</v>
       </c>
       <c r="F122">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G122">
         <f t="shared" si="67"/>
@@ -13759,13 +13759,13 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir010_s14007</v>
+        <v>dlc13_wsp09_wdir008_s14007</v>
       </c>
       <c r="E123">
         <v>9</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G123">
         <f t="shared" si="67"/>
@@ -13867,13 +13867,13 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir010_s15007</v>
+        <v>dlc13_wsp09_wdir008_s15007</v>
       </c>
       <c r="E124">
         <v>9</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G124">
         <f t="shared" si="67"/>
@@ -13975,13 +13975,13 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir010_s16007</v>
+        <v>dlc13_wsp09_wdir008_s16007</v>
       </c>
       <c r="E125">
         <v>9</v>
       </c>
       <c r="F125">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G125">
         <f t="shared" si="67"/>
@@ -14083,13 +14083,13 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir010_s17007</v>
+        <v>dlc13_wsp09_wdir008_s17007</v>
       </c>
       <c r="E126">
         <v>9</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G126">
         <f t="shared" si="67"/>
@@ -14191,13 +14191,13 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="40"/>
-        <v>dlc13_wsp09_wdir010_s18007</v>
+        <v>dlc13_wsp09_wdir008_s18007</v>
       </c>
       <c r="E127">
         <v>9</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G127">
         <f t="shared" si="67"/>
@@ -14946,13 +14946,13 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir350_s7008</v>
+        <v>dlc13_wsp10_wdir352_s7008</v>
       </c>
       <c r="E134">
         <v>10</v>
       </c>
       <c r="F134">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G134">
         <f t="shared" si="77"/>
@@ -15054,13 +15054,13 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir350_s8008</v>
+        <v>dlc13_wsp10_wdir352_s8008</v>
       </c>
       <c r="E135">
         <v>10</v>
       </c>
       <c r="F135">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G135">
         <f t="shared" si="77"/>
@@ -15162,13 +15162,13 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir350_s9008</v>
+        <v>dlc13_wsp10_wdir352_s9008</v>
       </c>
       <c r="E136">
         <v>10</v>
       </c>
       <c r="F136">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G136">
         <f t="shared" si="77"/>
@@ -15270,13 +15270,13 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir350_s10008</v>
+        <v>dlc13_wsp10_wdir352_s10008</v>
       </c>
       <c r="E137">
         <v>10</v>
       </c>
       <c r="F137">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G137">
         <f t="shared" si="77"/>
@@ -15378,13 +15378,13 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir350_s11008</v>
+        <v>dlc13_wsp10_wdir352_s11008</v>
       </c>
       <c r="E138">
         <v>10</v>
       </c>
       <c r="F138">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G138">
         <f t="shared" si="77"/>
@@ -15486,13 +15486,13 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir350_s12008</v>
+        <v>dlc13_wsp10_wdir352_s12008</v>
       </c>
       <c r="E139">
         <v>10</v>
       </c>
       <c r="F139">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G139">
         <f t="shared" si="77"/>
@@ -15594,13 +15594,13 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir010_s13008</v>
+        <v>dlc13_wsp10_wdir008_s13008</v>
       </c>
       <c r="E140">
         <v>10</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G140">
         <f t="shared" si="77"/>
@@ -15702,13 +15702,13 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir010_s14008</v>
+        <v>dlc13_wsp10_wdir008_s14008</v>
       </c>
       <c r="E141">
         <v>10</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G141">
         <f t="shared" si="77"/>
@@ -15810,13 +15810,13 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir010_s15008</v>
+        <v>dlc13_wsp10_wdir008_s15008</v>
       </c>
       <c r="E142">
         <v>10</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G142">
         <f t="shared" si="77"/>
@@ -15918,13 +15918,13 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir010_s16008</v>
+        <v>dlc13_wsp10_wdir008_s16008</v>
       </c>
       <c r="E143">
         <v>10</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G143">
         <f t="shared" si="77"/>
@@ -16026,13 +16026,13 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir010_s17008</v>
+        <v>dlc13_wsp10_wdir008_s17008</v>
       </c>
       <c r="E144">
         <v>10</v>
       </c>
       <c r="F144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G144">
         <f t="shared" si="77"/>
@@ -16134,13 +16134,13 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp10_wdir010_s18008</v>
+        <v>dlc13_wsp10_wdir008_s18008</v>
       </c>
       <c r="E145">
         <v>10</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G145">
         <f t="shared" si="77"/>
@@ -16889,13 +16889,13 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir350_s7009</v>
+        <v>dlc13_wsp11_wdir352_s7009</v>
       </c>
       <c r="E152">
         <v>11</v>
       </c>
       <c r="F152">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G152">
         <f t="shared" si="90"/>
@@ -16997,13 +16997,13 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir350_s8009</v>
+        <v>dlc13_wsp11_wdir352_s8009</v>
       </c>
       <c r="E153">
         <v>11</v>
       </c>
       <c r="F153">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G153">
         <f t="shared" si="90"/>
@@ -17105,13 +17105,13 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir350_s9009</v>
+        <v>dlc13_wsp11_wdir352_s9009</v>
       </c>
       <c r="E154">
         <v>11</v>
       </c>
       <c r="F154">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G154">
         <f t="shared" si="90"/>
@@ -17213,13 +17213,13 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir350_s10009</v>
+        <v>dlc13_wsp11_wdir352_s10009</v>
       </c>
       <c r="E155">
         <v>11</v>
       </c>
       <c r="F155">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G155">
         <f t="shared" si="90"/>
@@ -17321,13 +17321,13 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir350_s11009</v>
+        <v>dlc13_wsp11_wdir352_s11009</v>
       </c>
       <c r="E156">
         <v>11</v>
       </c>
       <c r="F156">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G156">
         <f t="shared" si="90"/>
@@ -17429,13 +17429,13 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir350_s12009</v>
+        <v>dlc13_wsp11_wdir352_s12009</v>
       </c>
       <c r="E157">
         <v>11</v>
       </c>
       <c r="F157">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G157">
         <f t="shared" si="90"/>
@@ -17537,13 +17537,13 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir010_s13009</v>
+        <v>dlc13_wsp11_wdir008_s13009</v>
       </c>
       <c r="E158">
         <v>11</v>
       </c>
       <c r="F158">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G158">
         <f t="shared" si="90"/>
@@ -17645,13 +17645,13 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir010_s14009</v>
+        <v>dlc13_wsp11_wdir008_s14009</v>
       </c>
       <c r="E159">
         <v>11</v>
       </c>
       <c r="F159">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G159">
         <f t="shared" si="90"/>
@@ -17753,13 +17753,13 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir010_s15009</v>
+        <v>dlc13_wsp11_wdir008_s15009</v>
       </c>
       <c r="E160">
         <v>11</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G160">
         <f t="shared" si="90"/>
@@ -17861,13 +17861,13 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir010_s16009</v>
+        <v>dlc13_wsp11_wdir008_s16009</v>
       </c>
       <c r="E161">
         <v>11</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G161">
         <f t="shared" si="90"/>
@@ -17969,13 +17969,13 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir010_s17009</v>
+        <v>dlc13_wsp11_wdir008_s17009</v>
       </c>
       <c r="E162">
         <v>11</v>
       </c>
       <c r="F162">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G162">
         <f t="shared" si="90"/>
@@ -18077,13 +18077,13 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp11_wdir010_s18009</v>
+        <v>dlc13_wsp11_wdir008_s18009</v>
       </c>
       <c r="E163">
         <v>11</v>
       </c>
       <c r="F163">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G163">
         <f t="shared" si="90"/>
@@ -18832,13 +18832,13 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir350_s7010</v>
+        <v>dlc13_wsp12_wdir352_s7010</v>
       </c>
       <c r="E170">
         <v>12</v>
       </c>
       <c r="F170">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G170">
         <f t="shared" si="100"/>
@@ -18940,13 +18940,13 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir350_s8010</v>
+        <v>dlc13_wsp12_wdir352_s8010</v>
       </c>
       <c r="E171">
         <v>12</v>
       </c>
       <c r="F171">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G171">
         <f t="shared" si="100"/>
@@ -19048,13 +19048,13 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir350_s9010</v>
+        <v>dlc13_wsp12_wdir352_s9010</v>
       </c>
       <c r="E172">
         <v>12</v>
       </c>
       <c r="F172">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G172">
         <f t="shared" si="100"/>
@@ -19156,13 +19156,13 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir350_s10010</v>
+        <v>dlc13_wsp12_wdir352_s10010</v>
       </c>
       <c r="E173">
         <v>12</v>
       </c>
       <c r="F173">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G173">
         <f t="shared" si="100"/>
@@ -19264,13 +19264,13 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir350_s11010</v>
+        <v>dlc13_wsp12_wdir352_s11010</v>
       </c>
       <c r="E174">
         <v>12</v>
       </c>
       <c r="F174">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G174">
         <f t="shared" si="100"/>
@@ -19372,13 +19372,13 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir350_s12010</v>
+        <v>dlc13_wsp12_wdir352_s12010</v>
       </c>
       <c r="E175">
         <v>12</v>
       </c>
       <c r="F175">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G175">
         <f t="shared" si="100"/>
@@ -19480,13 +19480,13 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir010_s13010</v>
+        <v>dlc13_wsp12_wdir008_s13010</v>
       </c>
       <c r="E176">
         <v>12</v>
       </c>
       <c r="F176">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G176">
         <f t="shared" si="100"/>
@@ -19588,13 +19588,13 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir010_s14010</v>
+        <v>dlc13_wsp12_wdir008_s14010</v>
       </c>
       <c r="E177">
         <v>12</v>
       </c>
       <c r="F177">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G177">
         <f t="shared" si="100"/>
@@ -19696,13 +19696,13 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir010_s15010</v>
+        <v>dlc13_wsp12_wdir008_s15010</v>
       </c>
       <c r="E178">
         <v>12</v>
       </c>
       <c r="F178">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G178">
         <f t="shared" si="100"/>
@@ -19804,13 +19804,13 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir010_s16010</v>
+        <v>dlc13_wsp12_wdir008_s16010</v>
       </c>
       <c r="E179">
         <v>12</v>
       </c>
       <c r="F179">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G179">
         <f t="shared" si="100"/>
@@ -19912,13 +19912,13 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir010_s17010</v>
+        <v>dlc13_wsp12_wdir008_s17010</v>
       </c>
       <c r="E180">
         <v>12</v>
       </c>
       <c r="F180">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G180">
         <f t="shared" si="100"/>
@@ -20020,13 +20020,13 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp12_wdir010_s18010</v>
+        <v>dlc13_wsp12_wdir008_s18010</v>
       </c>
       <c r="E181">
         <v>12</v>
       </c>
       <c r="F181">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G181">
         <f t="shared" si="100"/>
@@ -20775,13 +20775,13 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp13_wdir350_s7011</v>
+        <v>dlc13_wsp13_wdir352_s7011</v>
       </c>
       <c r="E188">
         <v>13</v>
       </c>
       <c r="F188">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G188">
         <f t="shared" si="110"/>
@@ -20883,13 +20883,13 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp13_wdir350_s8011</v>
+        <v>dlc13_wsp13_wdir352_s8011</v>
       </c>
       <c r="E189">
         <v>13</v>
       </c>
       <c r="F189">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G189">
         <f t="shared" si="110"/>
@@ -20991,13 +20991,13 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp13_wdir350_s9011</v>
+        <v>dlc13_wsp13_wdir352_s9011</v>
       </c>
       <c r="E190">
         <v>13</v>
       </c>
       <c r="F190">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G190">
         <f t="shared" si="110"/>
@@ -21099,13 +21099,13 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp13_wdir350_s10011</v>
+        <v>dlc13_wsp13_wdir352_s10011</v>
       </c>
       <c r="E191">
         <v>13</v>
       </c>
       <c r="F191">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G191">
         <f t="shared" si="110"/>
@@ -21207,13 +21207,13 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp13_wdir350_s11011</v>
+        <v>dlc13_wsp13_wdir352_s11011</v>
       </c>
       <c r="E192">
         <v>13</v>
       </c>
       <c r="F192">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G192">
         <f t="shared" si="110"/>
@@ -21315,13 +21315,13 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp13_wdir350_s12011</v>
+        <v>dlc13_wsp13_wdir352_s12011</v>
       </c>
       <c r="E193">
         <v>13</v>
       </c>
       <c r="F193">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G193">
         <f t="shared" si="110"/>
@@ -21423,13 +21423,13 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="80"/>
-        <v>dlc13_wsp13_wdir010_s13011</v>
+        <v>dlc13_wsp13_wdir008_s13011</v>
       </c>
       <c r="E194">
         <v>13</v>
       </c>
       <c r="F194">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G194">
         <f t="shared" si="110"/>
@@ -21531,13 +21531,13 @@
       </c>
       <c r="D195" t="str">
         <f t="shared" ref="D195:D258" si="116">"dlc13_wsp"&amp;TEXT(E195,"00")&amp;"_wdir"&amp;TEXT(IF(F195&lt;0,F195+360,F195),"000")&amp;"_s"&amp;TEXT(G195,"0000")</f>
-        <v>dlc13_wsp13_wdir010_s14011</v>
+        <v>dlc13_wsp13_wdir008_s14011</v>
       </c>
       <c r="E195">
         <v>13</v>
       </c>
       <c r="F195">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G195">
         <f t="shared" si="110"/>
@@ -21639,13 +21639,13 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp13_wdir010_s15011</v>
+        <v>dlc13_wsp13_wdir008_s15011</v>
       </c>
       <c r="E196">
         <v>13</v>
       </c>
       <c r="F196">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G196">
         <f t="shared" si="110"/>
@@ -21747,13 +21747,13 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp13_wdir010_s16011</v>
+        <v>dlc13_wsp13_wdir008_s16011</v>
       </c>
       <c r="E197">
         <v>13</v>
       </c>
       <c r="F197">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G197">
         <f t="shared" si="110"/>
@@ -21855,13 +21855,13 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp13_wdir010_s17011</v>
+        <v>dlc13_wsp13_wdir008_s17011</v>
       </c>
       <c r="E198">
         <v>13</v>
       </c>
       <c r="F198">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G198">
         <f t="shared" si="110"/>
@@ -21963,13 +21963,13 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp13_wdir010_s18011</v>
+        <v>dlc13_wsp13_wdir008_s18011</v>
       </c>
       <c r="E199">
         <v>13</v>
       </c>
       <c r="F199">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G199">
         <f t="shared" si="110"/>
@@ -22718,13 +22718,13 @@
       </c>
       <c r="D206" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir350_s7012</v>
+        <v>dlc13_wsp14_wdir352_s7012</v>
       </c>
       <c r="E206">
         <v>14</v>
       </c>
       <c r="F206">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G206">
         <f t="shared" si="123"/>
@@ -22826,13 +22826,13 @@
       </c>
       <c r="D207" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir350_s8012</v>
+        <v>dlc13_wsp14_wdir352_s8012</v>
       </c>
       <c r="E207">
         <v>14</v>
       </c>
       <c r="F207">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G207">
         <f t="shared" si="123"/>
@@ -22934,13 +22934,13 @@
       </c>
       <c r="D208" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir350_s9012</v>
+        <v>dlc13_wsp14_wdir352_s9012</v>
       </c>
       <c r="E208">
         <v>14</v>
       </c>
       <c r="F208">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G208">
         <f t="shared" si="123"/>
@@ -23042,13 +23042,13 @@
       </c>
       <c r="D209" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir350_s10012</v>
+        <v>dlc13_wsp14_wdir352_s10012</v>
       </c>
       <c r="E209">
         <v>14</v>
       </c>
       <c r="F209">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G209">
         <f t="shared" si="123"/>
@@ -23150,13 +23150,13 @@
       </c>
       <c r="D210" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir350_s11012</v>
+        <v>dlc13_wsp14_wdir352_s11012</v>
       </c>
       <c r="E210">
         <v>14</v>
       </c>
       <c r="F210">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G210">
         <f t="shared" si="123"/>
@@ -23258,13 +23258,13 @@
       </c>
       <c r="D211" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir350_s12012</v>
+        <v>dlc13_wsp14_wdir352_s12012</v>
       </c>
       <c r="E211">
         <v>14</v>
       </c>
       <c r="F211">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G211">
         <f t="shared" si="123"/>
@@ -23366,13 +23366,13 @@
       </c>
       <c r="D212" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir010_s13012</v>
+        <v>dlc13_wsp14_wdir008_s13012</v>
       </c>
       <c r="E212">
         <v>14</v>
       </c>
       <c r="F212">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G212">
         <f t="shared" si="123"/>
@@ -23474,13 +23474,13 @@
       </c>
       <c r="D213" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir010_s14012</v>
+        <v>dlc13_wsp14_wdir008_s14012</v>
       </c>
       <c r="E213">
         <v>14</v>
       </c>
       <c r="F213">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G213">
         <f t="shared" si="123"/>
@@ -23582,13 +23582,13 @@
       </c>
       <c r="D214" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir010_s15012</v>
+        <v>dlc13_wsp14_wdir008_s15012</v>
       </c>
       <c r="E214">
         <v>14</v>
       </c>
       <c r="F214">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G214">
         <f t="shared" si="123"/>
@@ -23690,13 +23690,13 @@
       </c>
       <c r="D215" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir010_s16012</v>
+        <v>dlc13_wsp14_wdir008_s16012</v>
       </c>
       <c r="E215">
         <v>14</v>
       </c>
       <c r="F215">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G215">
         <f t="shared" si="123"/>
@@ -23798,13 +23798,13 @@
       </c>
       <c r="D216" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir010_s17012</v>
+        <v>dlc13_wsp14_wdir008_s17012</v>
       </c>
       <c r="E216">
         <v>14</v>
       </c>
       <c r="F216">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G216">
         <f t="shared" si="123"/>
@@ -23906,13 +23906,13 @@
       </c>
       <c r="D217" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp14_wdir010_s18012</v>
+        <v>dlc13_wsp14_wdir008_s18012</v>
       </c>
       <c r="E217">
         <v>14</v>
       </c>
       <c r="F217">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G217">
         <f t="shared" si="123"/>
@@ -24661,13 +24661,13 @@
       </c>
       <c r="D224" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir350_s7013</v>
+        <v>dlc13_wsp15_wdir352_s7013</v>
       </c>
       <c r="E224">
         <v>15</v>
       </c>
       <c r="F224">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G224">
         <f t="shared" si="133"/>
@@ -24769,13 +24769,13 @@
       </c>
       <c r="D225" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir350_s8013</v>
+        <v>dlc13_wsp15_wdir352_s8013</v>
       </c>
       <c r="E225">
         <v>15</v>
       </c>
       <c r="F225">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G225">
         <f t="shared" si="133"/>
@@ -24877,13 +24877,13 @@
       </c>
       <c r="D226" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir350_s9013</v>
+        <v>dlc13_wsp15_wdir352_s9013</v>
       </c>
       <c r="E226">
         <v>15</v>
       </c>
       <c r="F226">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G226">
         <f t="shared" si="133"/>
@@ -24985,13 +24985,13 @@
       </c>
       <c r="D227" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir350_s10013</v>
+        <v>dlc13_wsp15_wdir352_s10013</v>
       </c>
       <c r="E227">
         <v>15</v>
       </c>
       <c r="F227">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G227">
         <f t="shared" si="133"/>
@@ -25093,13 +25093,13 @@
       </c>
       <c r="D228" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir350_s11013</v>
+        <v>dlc13_wsp15_wdir352_s11013</v>
       </c>
       <c r="E228">
         <v>15</v>
       </c>
       <c r="F228">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G228">
         <f t="shared" si="133"/>
@@ -25201,13 +25201,13 @@
       </c>
       <c r="D229" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir350_s12013</v>
+        <v>dlc13_wsp15_wdir352_s12013</v>
       </c>
       <c r="E229">
         <v>15</v>
       </c>
       <c r="F229">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G229">
         <f t="shared" si="133"/>
@@ -25309,13 +25309,13 @@
       </c>
       <c r="D230" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir010_s13013</v>
+        <v>dlc13_wsp15_wdir008_s13013</v>
       </c>
       <c r="E230">
         <v>15</v>
       </c>
       <c r="F230">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G230">
         <f t="shared" si="133"/>
@@ -25417,13 +25417,13 @@
       </c>
       <c r="D231" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir010_s14013</v>
+        <v>dlc13_wsp15_wdir008_s14013</v>
       </c>
       <c r="E231">
         <v>15</v>
       </c>
       <c r="F231">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G231">
         <f t="shared" si="133"/>
@@ -25525,13 +25525,13 @@
       </c>
       <c r="D232" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir010_s15013</v>
+        <v>dlc13_wsp15_wdir008_s15013</v>
       </c>
       <c r="E232">
         <v>15</v>
       </c>
       <c r="F232">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G232">
         <f t="shared" si="133"/>
@@ -25633,13 +25633,13 @@
       </c>
       <c r="D233" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir010_s16013</v>
+        <v>dlc13_wsp15_wdir008_s16013</v>
       </c>
       <c r="E233">
         <v>15</v>
       </c>
       <c r="F233">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G233">
         <f t="shared" si="133"/>
@@ -25741,13 +25741,13 @@
       </c>
       <c r="D234" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir010_s17013</v>
+        <v>dlc13_wsp15_wdir008_s17013</v>
       </c>
       <c r="E234">
         <v>15</v>
       </c>
       <c r="F234">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G234">
         <f t="shared" si="133"/>
@@ -25849,13 +25849,13 @@
       </c>
       <c r="D235" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp15_wdir010_s18013</v>
+        <v>dlc13_wsp15_wdir008_s18013</v>
       </c>
       <c r="E235">
         <v>15</v>
       </c>
       <c r="F235">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G235">
         <f t="shared" si="133"/>
@@ -26604,13 +26604,13 @@
       </c>
       <c r="D242" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir350_s7014</v>
+        <v>dlc13_wsp16_wdir352_s7014</v>
       </c>
       <c r="E242">
         <v>16</v>
       </c>
       <c r="F242">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G242">
         <f t="shared" si="143"/>
@@ -26712,13 +26712,13 @@
       </c>
       <c r="D243" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir350_s8014</v>
+        <v>dlc13_wsp16_wdir352_s8014</v>
       </c>
       <c r="E243">
         <v>16</v>
       </c>
       <c r="F243">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G243">
         <f t="shared" si="143"/>
@@ -26820,13 +26820,13 @@
       </c>
       <c r="D244" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir350_s9014</v>
+        <v>dlc13_wsp16_wdir352_s9014</v>
       </c>
       <c r="E244">
         <v>16</v>
       </c>
       <c r="F244">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G244">
         <f t="shared" si="143"/>
@@ -26928,13 +26928,13 @@
       </c>
       <c r="D245" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir350_s10014</v>
+        <v>dlc13_wsp16_wdir352_s10014</v>
       </c>
       <c r="E245">
         <v>16</v>
       </c>
       <c r="F245">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G245">
         <f t="shared" si="143"/>
@@ -27036,13 +27036,13 @@
       </c>
       <c r="D246" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir350_s11014</v>
+        <v>dlc13_wsp16_wdir352_s11014</v>
       </c>
       <c r="E246">
         <v>16</v>
       </c>
       <c r="F246">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G246">
         <f t="shared" si="143"/>
@@ -27144,13 +27144,13 @@
       </c>
       <c r="D247" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir350_s12014</v>
+        <v>dlc13_wsp16_wdir352_s12014</v>
       </c>
       <c r="E247">
         <v>16</v>
       </c>
       <c r="F247">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G247">
         <f t="shared" si="143"/>
@@ -27252,13 +27252,13 @@
       </c>
       <c r="D248" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir010_s13014</v>
+        <v>dlc13_wsp16_wdir008_s13014</v>
       </c>
       <c r="E248">
         <v>16</v>
       </c>
       <c r="F248">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G248">
         <f t="shared" si="143"/>
@@ -27360,13 +27360,13 @@
       </c>
       <c r="D249" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir010_s14014</v>
+        <v>dlc13_wsp16_wdir008_s14014</v>
       </c>
       <c r="E249">
         <v>16</v>
       </c>
       <c r="F249">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G249">
         <f t="shared" si="143"/>
@@ -27468,13 +27468,13 @@
       </c>
       <c r="D250" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir010_s15014</v>
+        <v>dlc13_wsp16_wdir008_s15014</v>
       </c>
       <c r="E250">
         <v>16</v>
       </c>
       <c r="F250">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G250">
         <f t="shared" si="143"/>
@@ -27576,13 +27576,13 @@
       </c>
       <c r="D251" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir010_s16014</v>
+        <v>dlc13_wsp16_wdir008_s16014</v>
       </c>
       <c r="E251">
         <v>16</v>
       </c>
       <c r="F251">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G251">
         <f t="shared" si="143"/>
@@ -27684,13 +27684,13 @@
       </c>
       <c r="D252" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir010_s17014</v>
+        <v>dlc13_wsp16_wdir008_s17014</v>
       </c>
       <c r="E252">
         <v>16</v>
       </c>
       <c r="F252">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G252">
         <f t="shared" si="143"/>
@@ -27792,13 +27792,13 @@
       </c>
       <c r="D253" t="str">
         <f t="shared" si="116"/>
-        <v>dlc13_wsp16_wdir010_s18014</v>
+        <v>dlc13_wsp16_wdir008_s18014</v>
       </c>
       <c r="E253">
         <v>16</v>
       </c>
       <c r="F253">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G253">
         <f t="shared" si="143"/>
@@ -28547,13 +28547,13 @@
       </c>
       <c r="D260" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir350_s7015</v>
+        <v>dlc13_wsp17_wdir352_s7015</v>
       </c>
       <c r="E260">
         <v>17</v>
       </c>
       <c r="F260">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G260">
         <f t="shared" si="153"/>
@@ -28655,13 +28655,13 @@
       </c>
       <c r="D261" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir350_s8015</v>
+        <v>dlc13_wsp17_wdir352_s8015</v>
       </c>
       <c r="E261">
         <v>17</v>
       </c>
       <c r="F261">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G261">
         <f t="shared" si="153"/>
@@ -28763,13 +28763,13 @@
       </c>
       <c r="D262" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir350_s9015</v>
+        <v>dlc13_wsp17_wdir352_s9015</v>
       </c>
       <c r="E262">
         <v>17</v>
       </c>
       <c r="F262">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G262">
         <f t="shared" si="153"/>
@@ -28871,13 +28871,13 @@
       </c>
       <c r="D263" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir350_s10015</v>
+        <v>dlc13_wsp17_wdir352_s10015</v>
       </c>
       <c r="E263">
         <v>17</v>
       </c>
       <c r="F263">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G263">
         <f t="shared" si="153"/>
@@ -28979,13 +28979,13 @@
       </c>
       <c r="D264" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir350_s11015</v>
+        <v>dlc13_wsp17_wdir352_s11015</v>
       </c>
       <c r="E264">
         <v>17</v>
       </c>
       <c r="F264">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G264">
         <f t="shared" si="153"/>
@@ -29087,13 +29087,13 @@
       </c>
       <c r="D265" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir350_s12015</v>
+        <v>dlc13_wsp17_wdir352_s12015</v>
       </c>
       <c r="E265">
         <v>17</v>
       </c>
       <c r="F265">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G265">
         <f t="shared" si="153"/>
@@ -29195,13 +29195,13 @@
       </c>
       <c r="D266" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir010_s13015</v>
+        <v>dlc13_wsp17_wdir008_s13015</v>
       </c>
       <c r="E266">
         <v>17</v>
       </c>
       <c r="F266">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G266">
         <f t="shared" si="153"/>
@@ -29303,13 +29303,13 @@
       </c>
       <c r="D267" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir010_s14015</v>
+        <v>dlc13_wsp17_wdir008_s14015</v>
       </c>
       <c r="E267">
         <v>17</v>
       </c>
       <c r="F267">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G267">
         <f t="shared" si="153"/>
@@ -29411,13 +29411,13 @@
       </c>
       <c r="D268" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir010_s15015</v>
+        <v>dlc13_wsp17_wdir008_s15015</v>
       </c>
       <c r="E268">
         <v>17</v>
       </c>
       <c r="F268">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G268">
         <f t="shared" si="153"/>
@@ -29519,13 +29519,13 @@
       </c>
       <c r="D269" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir010_s16015</v>
+        <v>dlc13_wsp17_wdir008_s16015</v>
       </c>
       <c r="E269">
         <v>17</v>
       </c>
       <c r="F269">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G269">
         <f t="shared" si="153"/>
@@ -29627,13 +29627,13 @@
       </c>
       <c r="D270" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir010_s17015</v>
+        <v>dlc13_wsp17_wdir008_s17015</v>
       </c>
       <c r="E270">
         <v>17</v>
       </c>
       <c r="F270">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G270">
         <f t="shared" si="153"/>
@@ -29735,13 +29735,13 @@
       </c>
       <c r="D271" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp17_wdir010_s18015</v>
+        <v>dlc13_wsp17_wdir008_s18015</v>
       </c>
       <c r="E271">
         <v>17</v>
       </c>
       <c r="F271">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G271">
         <f t="shared" si="153"/>
@@ -30490,13 +30490,13 @@
       </c>
       <c r="D278" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir350_s7016</v>
+        <v>dlc13_wsp18_wdir352_s7016</v>
       </c>
       <c r="E278">
         <v>18</v>
       </c>
       <c r="F278">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G278">
         <f t="shared" si="166"/>
@@ -30598,13 +30598,13 @@
       </c>
       <c r="D279" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir350_s8016</v>
+        <v>dlc13_wsp18_wdir352_s8016</v>
       </c>
       <c r="E279">
         <v>18</v>
       </c>
       <c r="F279">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G279">
         <f t="shared" si="166"/>
@@ -30706,13 +30706,13 @@
       </c>
       <c r="D280" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir350_s9016</v>
+        <v>dlc13_wsp18_wdir352_s9016</v>
       </c>
       <c r="E280">
         <v>18</v>
       </c>
       <c r="F280">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G280">
         <f t="shared" si="166"/>
@@ -30814,13 +30814,13 @@
       </c>
       <c r="D281" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir350_s10016</v>
+        <v>dlc13_wsp18_wdir352_s10016</v>
       </c>
       <c r="E281">
         <v>18</v>
       </c>
       <c r="F281">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G281">
         <f t="shared" si="166"/>
@@ -30922,13 +30922,13 @@
       </c>
       <c r="D282" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir350_s11016</v>
+        <v>dlc13_wsp18_wdir352_s11016</v>
       </c>
       <c r="E282">
         <v>18</v>
       </c>
       <c r="F282">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G282">
         <f t="shared" si="166"/>
@@ -31030,13 +31030,13 @@
       </c>
       <c r="D283" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir350_s12016</v>
+        <v>dlc13_wsp18_wdir352_s12016</v>
       </c>
       <c r="E283">
         <v>18</v>
       </c>
       <c r="F283">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G283">
         <f t="shared" si="166"/>
@@ -31138,13 +31138,13 @@
       </c>
       <c r="D284" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir010_s13016</v>
+        <v>dlc13_wsp18_wdir008_s13016</v>
       </c>
       <c r="E284">
         <v>18</v>
       </c>
       <c r="F284">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G284">
         <f t="shared" si="166"/>
@@ -31246,13 +31246,13 @@
       </c>
       <c r="D285" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir010_s14016</v>
+        <v>dlc13_wsp18_wdir008_s14016</v>
       </c>
       <c r="E285">
         <v>18</v>
       </c>
       <c r="F285">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G285">
         <f t="shared" si="166"/>
@@ -31354,13 +31354,13 @@
       </c>
       <c r="D286" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir010_s15016</v>
+        <v>dlc13_wsp18_wdir008_s15016</v>
       </c>
       <c r="E286">
         <v>18</v>
       </c>
       <c r="F286">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G286">
         <f t="shared" si="166"/>
@@ -31462,13 +31462,13 @@
       </c>
       <c r="D287" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir010_s16016</v>
+        <v>dlc13_wsp18_wdir008_s16016</v>
       </c>
       <c r="E287">
         <v>18</v>
       </c>
       <c r="F287">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G287">
         <f t="shared" si="166"/>
@@ -31570,13 +31570,13 @@
       </c>
       <c r="D288" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir010_s17016</v>
+        <v>dlc13_wsp18_wdir008_s17016</v>
       </c>
       <c r="E288">
         <v>18</v>
       </c>
       <c r="F288">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G288">
         <f t="shared" si="166"/>
@@ -31678,13 +31678,13 @@
       </c>
       <c r="D289" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp18_wdir010_s18016</v>
+        <v>dlc13_wsp18_wdir008_s18016</v>
       </c>
       <c r="E289">
         <v>18</v>
       </c>
       <c r="F289">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G289">
         <f t="shared" si="166"/>
@@ -32433,13 +32433,13 @@
       </c>
       <c r="D296" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir350_s7017</v>
+        <v>dlc13_wsp19_wdir352_s7017</v>
       </c>
       <c r="E296">
         <v>19</v>
       </c>
       <c r="F296">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G296">
         <f t="shared" si="176"/>
@@ -32541,13 +32541,13 @@
       </c>
       <c r="D297" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir350_s8017</v>
+        <v>dlc13_wsp19_wdir352_s8017</v>
       </c>
       <c r="E297">
         <v>19</v>
       </c>
       <c r="F297">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G297">
         <f t="shared" si="176"/>
@@ -32649,13 +32649,13 @@
       </c>
       <c r="D298" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir350_s9017</v>
+        <v>dlc13_wsp19_wdir352_s9017</v>
       </c>
       <c r="E298">
         <v>19</v>
       </c>
       <c r="F298">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G298">
         <f t="shared" si="176"/>
@@ -32757,13 +32757,13 @@
       </c>
       <c r="D299" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir350_s10017</v>
+        <v>dlc13_wsp19_wdir352_s10017</v>
       </c>
       <c r="E299">
         <v>19</v>
       </c>
       <c r="F299">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G299">
         <f t="shared" si="176"/>
@@ -32865,13 +32865,13 @@
       </c>
       <c r="D300" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir350_s11017</v>
+        <v>dlc13_wsp19_wdir352_s11017</v>
       </c>
       <c r="E300">
         <v>19</v>
       </c>
       <c r="F300">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G300">
         <f t="shared" si="176"/>
@@ -32973,13 +32973,13 @@
       </c>
       <c r="D301" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir350_s12017</v>
+        <v>dlc13_wsp19_wdir352_s12017</v>
       </c>
       <c r="E301">
         <v>19</v>
       </c>
       <c r="F301">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G301">
         <f t="shared" si="176"/>
@@ -33081,13 +33081,13 @@
       </c>
       <c r="D302" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir010_s13017</v>
+        <v>dlc13_wsp19_wdir008_s13017</v>
       </c>
       <c r="E302">
         <v>19</v>
       </c>
       <c r="F302">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G302">
         <f t="shared" si="176"/>
@@ -33189,13 +33189,13 @@
       </c>
       <c r="D303" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir010_s14017</v>
+        <v>dlc13_wsp19_wdir008_s14017</v>
       </c>
       <c r="E303">
         <v>19</v>
       </c>
       <c r="F303">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G303">
         <f t="shared" si="176"/>
@@ -33297,13 +33297,13 @@
       </c>
       <c r="D304" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir010_s15017</v>
+        <v>dlc13_wsp19_wdir008_s15017</v>
       </c>
       <c r="E304">
         <v>19</v>
       </c>
       <c r="F304">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G304">
         <f t="shared" si="176"/>
@@ -33405,13 +33405,13 @@
       </c>
       <c r="D305" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir010_s16017</v>
+        <v>dlc13_wsp19_wdir008_s16017</v>
       </c>
       <c r="E305">
         <v>19</v>
       </c>
       <c r="F305">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G305">
         <f t="shared" si="176"/>
@@ -33513,13 +33513,13 @@
       </c>
       <c r="D306" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir010_s17017</v>
+        <v>dlc13_wsp19_wdir008_s17017</v>
       </c>
       <c r="E306">
         <v>19</v>
       </c>
       <c r="F306">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G306">
         <f t="shared" si="176"/>
@@ -33621,13 +33621,13 @@
       </c>
       <c r="D307" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp19_wdir010_s18017</v>
+        <v>dlc13_wsp19_wdir008_s18017</v>
       </c>
       <c r="E307">
         <v>19</v>
       </c>
       <c r="F307">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G307">
         <f t="shared" si="176"/>
@@ -34376,13 +34376,13 @@
       </c>
       <c r="D314" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp20_wdir350_s7018</v>
+        <v>dlc13_wsp20_wdir352_s7018</v>
       </c>
       <c r="E314">
         <v>20</v>
       </c>
       <c r="F314">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G314">
         <f t="shared" si="186"/>
@@ -34484,13 +34484,13 @@
       </c>
       <c r="D315" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp20_wdir350_s8018</v>
+        <v>dlc13_wsp20_wdir352_s8018</v>
       </c>
       <c r="E315">
         <v>20</v>
       </c>
       <c r="F315">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G315">
         <f t="shared" si="186"/>
@@ -34592,13 +34592,13 @@
       </c>
       <c r="D316" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp20_wdir350_s9018</v>
+        <v>dlc13_wsp20_wdir352_s9018</v>
       </c>
       <c r="E316">
         <v>20</v>
       </c>
       <c r="F316">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G316">
         <f t="shared" si="186"/>
@@ -34700,13 +34700,13 @@
       </c>
       <c r="D317" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp20_wdir350_s10018</v>
+        <v>dlc13_wsp20_wdir352_s10018</v>
       </c>
       <c r="E317">
         <v>20</v>
       </c>
       <c r="F317">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G317">
         <f t="shared" si="186"/>
@@ -34808,13 +34808,13 @@
       </c>
       <c r="D318" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp20_wdir350_s11018</v>
+        <v>dlc13_wsp20_wdir352_s11018</v>
       </c>
       <c r="E318">
         <v>20</v>
       </c>
       <c r="F318">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G318">
         <f t="shared" si="186"/>
@@ -34916,13 +34916,13 @@
       </c>
       <c r="D319" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp20_wdir350_s12018</v>
+        <v>dlc13_wsp20_wdir352_s12018</v>
       </c>
       <c r="E319">
         <v>20</v>
       </c>
       <c r="F319">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G319">
         <f t="shared" si="186"/>
@@ -35024,13 +35024,13 @@
       </c>
       <c r="D320" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp20_wdir010_s13018</v>
+        <v>dlc13_wsp20_wdir008_s13018</v>
       </c>
       <c r="E320">
         <v>20</v>
       </c>
       <c r="F320">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G320">
         <f t="shared" si="186"/>
@@ -35132,13 +35132,13 @@
       </c>
       <c r="D321" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp20_wdir010_s14018</v>
+        <v>dlc13_wsp20_wdir008_s14018</v>
       </c>
       <c r="E321">
         <v>20</v>
       </c>
       <c r="F321">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G321">
         <f t="shared" si="186"/>
@@ -35240,13 +35240,13 @@
       </c>
       <c r="D322" t="str">
         <f t="shared" si="156"/>
-        <v>dlc13_wsp20_wdir010_s15018</v>
+        <v>dlc13_wsp20_wdir008_s15018</v>
       </c>
       <c r="E322">
         <v>20</v>
       </c>
       <c r="F322">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G322">
         <f t="shared" si="186"/>
@@ -35348,13 +35348,13 @@
       </c>
       <c r="D323" t="str">
         <f t="shared" ref="D323:D386" si="195">"dlc13_wsp"&amp;TEXT(E323,"00")&amp;"_wdir"&amp;TEXT(IF(F323&lt;0,F323+360,F323),"000")&amp;"_s"&amp;TEXT(G323,"0000")</f>
-        <v>dlc13_wsp20_wdir010_s16018</v>
+        <v>dlc13_wsp20_wdir008_s16018</v>
       </c>
       <c r="E323">
         <v>20</v>
       </c>
       <c r="F323">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G323">
         <f t="shared" si="186"/>
@@ -35456,13 +35456,13 @@
       </c>
       <c r="D324" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp20_wdir010_s17018</v>
+        <v>dlc13_wsp20_wdir008_s17018</v>
       </c>
       <c r="E324">
         <v>20</v>
       </c>
       <c r="F324">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G324">
         <f t="shared" si="186"/>
@@ -35564,13 +35564,13 @@
       </c>
       <c r="D325" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp20_wdir010_s18018</v>
+        <v>dlc13_wsp20_wdir008_s18018</v>
       </c>
       <c r="E325">
         <v>20</v>
       </c>
       <c r="F325">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G325">
         <f t="shared" si="186"/>
@@ -36319,13 +36319,13 @@
       </c>
       <c r="D332" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir350_s7019</v>
+        <v>dlc13_wsp21_wdir352_s7019</v>
       </c>
       <c r="E332">
         <v>21</v>
       </c>
       <c r="F332">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G332">
         <f t="shared" si="199"/>
@@ -36427,13 +36427,13 @@
       </c>
       <c r="D333" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir350_s8019</v>
+        <v>dlc13_wsp21_wdir352_s8019</v>
       </c>
       <c r="E333">
         <v>21</v>
       </c>
       <c r="F333">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G333">
         <f t="shared" si="199"/>
@@ -36535,13 +36535,13 @@
       </c>
       <c r="D334" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir350_s9019</v>
+        <v>dlc13_wsp21_wdir352_s9019</v>
       </c>
       <c r="E334">
         <v>21</v>
       </c>
       <c r="F334">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G334">
         <f t="shared" si="199"/>
@@ -36643,13 +36643,13 @@
       </c>
       <c r="D335" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir350_s10019</v>
+        <v>dlc13_wsp21_wdir352_s10019</v>
       </c>
       <c r="E335">
         <v>21</v>
       </c>
       <c r="F335">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G335">
         <f t="shared" si="199"/>
@@ -36751,13 +36751,13 @@
       </c>
       <c r="D336" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir350_s11019</v>
+        <v>dlc13_wsp21_wdir352_s11019</v>
       </c>
       <c r="E336">
         <v>21</v>
       </c>
       <c r="F336">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G336">
         <f t="shared" si="199"/>
@@ -36859,13 +36859,13 @@
       </c>
       <c r="D337" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir350_s12019</v>
+        <v>dlc13_wsp21_wdir352_s12019</v>
       </c>
       <c r="E337">
         <v>21</v>
       </c>
       <c r="F337">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G337">
         <f t="shared" si="199"/>
@@ -36967,13 +36967,13 @@
       </c>
       <c r="D338" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir010_s13019</v>
+        <v>dlc13_wsp21_wdir008_s13019</v>
       </c>
       <c r="E338">
         <v>21</v>
       </c>
       <c r="F338">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G338">
         <f t="shared" si="199"/>
@@ -37075,13 +37075,13 @@
       </c>
       <c r="D339" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir010_s14019</v>
+        <v>dlc13_wsp21_wdir008_s14019</v>
       </c>
       <c r="E339">
         <v>21</v>
       </c>
       <c r="F339">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G339">
         <f t="shared" si="199"/>
@@ -37183,13 +37183,13 @@
       </c>
       <c r="D340" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir010_s15019</v>
+        <v>dlc13_wsp21_wdir008_s15019</v>
       </c>
       <c r="E340">
         <v>21</v>
       </c>
       <c r="F340">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G340">
         <f t="shared" si="199"/>
@@ -37291,13 +37291,13 @@
       </c>
       <c r="D341" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir010_s16019</v>
+        <v>dlc13_wsp21_wdir008_s16019</v>
       </c>
       <c r="E341">
         <v>21</v>
       </c>
       <c r="F341">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G341">
         <f t="shared" si="199"/>
@@ -37399,13 +37399,13 @@
       </c>
       <c r="D342" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir010_s17019</v>
+        <v>dlc13_wsp21_wdir008_s17019</v>
       </c>
       <c r="E342">
         <v>21</v>
       </c>
       <c r="F342">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G342">
         <f t="shared" si="199"/>
@@ -37507,13 +37507,13 @@
       </c>
       <c r="D343" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp21_wdir010_s18019</v>
+        <v>dlc13_wsp21_wdir008_s18019</v>
       </c>
       <c r="E343">
         <v>21</v>
       </c>
       <c r="F343">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G343">
         <f t="shared" si="199"/>
@@ -38262,13 +38262,13 @@
       </c>
       <c r="D350" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir350_s7020</v>
+        <v>dlc13_wsp22_wdir352_s7020</v>
       </c>
       <c r="E350">
         <v>22</v>
       </c>
       <c r="F350">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G350">
         <f t="shared" si="209"/>
@@ -38370,13 +38370,13 @@
       </c>
       <c r="D351" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir350_s8020</v>
+        <v>dlc13_wsp22_wdir352_s8020</v>
       </c>
       <c r="E351">
         <v>22</v>
       </c>
       <c r="F351">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G351">
         <f t="shared" si="209"/>
@@ -38478,13 +38478,13 @@
       </c>
       <c r="D352" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir350_s9020</v>
+        <v>dlc13_wsp22_wdir352_s9020</v>
       </c>
       <c r="E352">
         <v>22</v>
       </c>
       <c r="F352">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G352">
         <f t="shared" si="209"/>
@@ -38586,13 +38586,13 @@
       </c>
       <c r="D353" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir350_s10020</v>
+        <v>dlc13_wsp22_wdir352_s10020</v>
       </c>
       <c r="E353">
         <v>22</v>
       </c>
       <c r="F353">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G353">
         <f t="shared" si="209"/>
@@ -38694,13 +38694,13 @@
       </c>
       <c r="D354" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir350_s11020</v>
+        <v>dlc13_wsp22_wdir352_s11020</v>
       </c>
       <c r="E354">
         <v>22</v>
       </c>
       <c r="F354">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G354">
         <f t="shared" si="209"/>
@@ -38802,13 +38802,13 @@
       </c>
       <c r="D355" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir350_s12020</v>
+        <v>dlc13_wsp22_wdir352_s12020</v>
       </c>
       <c r="E355">
         <v>22</v>
       </c>
       <c r="F355">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G355">
         <f t="shared" si="209"/>
@@ -38910,13 +38910,13 @@
       </c>
       <c r="D356" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir010_s13020</v>
+        <v>dlc13_wsp22_wdir008_s13020</v>
       </c>
       <c r="E356">
         <v>22</v>
       </c>
       <c r="F356">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G356">
         <f t="shared" si="209"/>
@@ -39018,13 +39018,13 @@
       </c>
       <c r="D357" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir010_s14020</v>
+        <v>dlc13_wsp22_wdir008_s14020</v>
       </c>
       <c r="E357">
         <v>22</v>
       </c>
       <c r="F357">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G357">
         <f t="shared" si="209"/>
@@ -39126,13 +39126,13 @@
       </c>
       <c r="D358" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir010_s15020</v>
+        <v>dlc13_wsp22_wdir008_s15020</v>
       </c>
       <c r="E358">
         <v>22</v>
       </c>
       <c r="F358">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G358">
         <f t="shared" si="209"/>
@@ -39234,13 +39234,13 @@
       </c>
       <c r="D359" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir010_s16020</v>
+        <v>dlc13_wsp22_wdir008_s16020</v>
       </c>
       <c r="E359">
         <v>22</v>
       </c>
       <c r="F359">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G359">
         <f t="shared" si="209"/>
@@ -39342,13 +39342,13 @@
       </c>
       <c r="D360" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir010_s17020</v>
+        <v>dlc13_wsp22_wdir008_s17020</v>
       </c>
       <c r="E360">
         <v>22</v>
       </c>
       <c r="F360">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G360">
         <f t="shared" si="209"/>
@@ -39450,13 +39450,13 @@
       </c>
       <c r="D361" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp22_wdir010_s18020</v>
+        <v>dlc13_wsp22_wdir008_s18020</v>
       </c>
       <c r="E361">
         <v>22</v>
       </c>
       <c r="F361">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G361">
         <f t="shared" si="209"/>
@@ -40205,13 +40205,13 @@
       </c>
       <c r="D368" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir350_s7021</v>
+        <v>dlc13_wsp23_wdir352_s7021</v>
       </c>
       <c r="E368">
         <v>23</v>
       </c>
       <c r="F368">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G368">
         <f t="shared" si="219"/>
@@ -40313,13 +40313,13 @@
       </c>
       <c r="D369" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir350_s8021</v>
+        <v>dlc13_wsp23_wdir352_s8021</v>
       </c>
       <c r="E369">
         <v>23</v>
       </c>
       <c r="F369">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G369">
         <f t="shared" si="219"/>
@@ -40421,13 +40421,13 @@
       </c>
       <c r="D370" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir350_s9021</v>
+        <v>dlc13_wsp23_wdir352_s9021</v>
       </c>
       <c r="E370">
         <v>23</v>
       </c>
       <c r="F370">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G370">
         <f t="shared" si="219"/>
@@ -40529,13 +40529,13 @@
       </c>
       <c r="D371" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir350_s10021</v>
+        <v>dlc13_wsp23_wdir352_s10021</v>
       </c>
       <c r="E371">
         <v>23</v>
       </c>
       <c r="F371">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G371">
         <f t="shared" si="219"/>
@@ -40637,13 +40637,13 @@
       </c>
       <c r="D372" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir350_s11021</v>
+        <v>dlc13_wsp23_wdir352_s11021</v>
       </c>
       <c r="E372">
         <v>23</v>
       </c>
       <c r="F372">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G372">
         <f t="shared" si="219"/>
@@ -40745,13 +40745,13 @@
       </c>
       <c r="D373" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir350_s12021</v>
+        <v>dlc13_wsp23_wdir352_s12021</v>
       </c>
       <c r="E373">
         <v>23</v>
       </c>
       <c r="F373">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G373">
         <f t="shared" si="219"/>
@@ -40853,13 +40853,13 @@
       </c>
       <c r="D374" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir010_s13021</v>
+        <v>dlc13_wsp23_wdir008_s13021</v>
       </c>
       <c r="E374">
         <v>23</v>
       </c>
       <c r="F374">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G374">
         <f t="shared" si="219"/>
@@ -40961,13 +40961,13 @@
       </c>
       <c r="D375" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir010_s14021</v>
+        <v>dlc13_wsp23_wdir008_s14021</v>
       </c>
       <c r="E375">
         <v>23</v>
       </c>
       <c r="F375">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G375">
         <f t="shared" si="219"/>
@@ -41069,13 +41069,13 @@
       </c>
       <c r="D376" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir010_s15021</v>
+        <v>dlc13_wsp23_wdir008_s15021</v>
       </c>
       <c r="E376">
         <v>23</v>
       </c>
       <c r="F376">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G376">
         <f t="shared" si="219"/>
@@ -41177,13 +41177,13 @@
       </c>
       <c r="D377" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir010_s16021</v>
+        <v>dlc13_wsp23_wdir008_s16021</v>
       </c>
       <c r="E377">
         <v>23</v>
       </c>
       <c r="F377">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G377">
         <f t="shared" si="219"/>
@@ -41285,13 +41285,13 @@
       </c>
       <c r="D378" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir010_s17021</v>
+        <v>dlc13_wsp23_wdir008_s17021</v>
       </c>
       <c r="E378">
         <v>23</v>
       </c>
       <c r="F378">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G378">
         <f t="shared" si="219"/>
@@ -41393,13 +41393,13 @@
       </c>
       <c r="D379" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp23_wdir010_s18021</v>
+        <v>dlc13_wsp23_wdir008_s18021</v>
       </c>
       <c r="E379">
         <v>23</v>
       </c>
       <c r="F379">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G379">
         <f t="shared" si="219"/>
@@ -42148,13 +42148,13 @@
       </c>
       <c r="D386" t="str">
         <f t="shared" si="195"/>
-        <v>dlc13_wsp24_wdir350_s7022</v>
+        <v>dlc13_wsp24_wdir352_s7022</v>
       </c>
       <c r="E386">
         <v>24</v>
       </c>
       <c r="F386">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G386">
         <f t="shared" si="229"/>
@@ -42256,13 +42256,13 @@
       </c>
       <c r="D387" t="str">
         <f t="shared" ref="D387:D415" si="232">"dlc13_wsp"&amp;TEXT(E387,"00")&amp;"_wdir"&amp;TEXT(IF(F387&lt;0,F387+360,F387),"000")&amp;"_s"&amp;TEXT(G387,"0000")</f>
-        <v>dlc13_wsp24_wdir350_s8022</v>
+        <v>dlc13_wsp24_wdir352_s8022</v>
       </c>
       <c r="E387">
         <v>24</v>
       </c>
       <c r="F387">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G387">
         <f t="shared" si="229"/>
@@ -42364,13 +42364,13 @@
       </c>
       <c r="D388" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir350_s9022</v>
+        <v>dlc13_wsp24_wdir352_s9022</v>
       </c>
       <c r="E388">
         <v>24</v>
       </c>
       <c r="F388">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G388">
         <f t="shared" si="229"/>
@@ -42472,13 +42472,13 @@
       </c>
       <c r="D389" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir350_s10022</v>
+        <v>dlc13_wsp24_wdir352_s10022</v>
       </c>
       <c r="E389">
         <v>24</v>
       </c>
       <c r="F389">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G389">
         <f t="shared" si="229"/>
@@ -42580,13 +42580,13 @@
       </c>
       <c r="D390" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir350_s11022</v>
+        <v>dlc13_wsp24_wdir352_s11022</v>
       </c>
       <c r="E390">
         <v>24</v>
       </c>
       <c r="F390">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G390">
         <f t="shared" si="229"/>
@@ -42688,13 +42688,13 @@
       </c>
       <c r="D391" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir350_s12022</v>
+        <v>dlc13_wsp24_wdir352_s12022</v>
       </c>
       <c r="E391">
         <v>24</v>
       </c>
       <c r="F391">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G391">
         <f t="shared" si="229"/>
@@ -42796,13 +42796,13 @@
       </c>
       <c r="D392" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir010_s13022</v>
+        <v>dlc13_wsp24_wdir008_s13022</v>
       </c>
       <c r="E392">
         <v>24</v>
       </c>
       <c r="F392">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G392">
         <f t="shared" si="229"/>
@@ -42904,13 +42904,13 @@
       </c>
       <c r="D393" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir010_s14022</v>
+        <v>dlc13_wsp24_wdir008_s14022</v>
       </c>
       <c r="E393">
         <v>24</v>
       </c>
       <c r="F393">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G393">
         <f t="shared" si="229"/>
@@ -43012,13 +43012,13 @@
       </c>
       <c r="D394" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir010_s15022</v>
+        <v>dlc13_wsp24_wdir008_s15022</v>
       </c>
       <c r="E394">
         <v>24</v>
       </c>
       <c r="F394">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G394">
         <f t="shared" si="229"/>
@@ -43120,13 +43120,13 @@
       </c>
       <c r="D395" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir010_s16022</v>
+        <v>dlc13_wsp24_wdir008_s16022</v>
       </c>
       <c r="E395">
         <v>24</v>
       </c>
       <c r="F395">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G395">
         <f t="shared" si="229"/>
@@ -43228,13 +43228,13 @@
       </c>
       <c r="D396" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir010_s17022</v>
+        <v>dlc13_wsp24_wdir008_s17022</v>
       </c>
       <c r="E396">
         <v>24</v>
       </c>
       <c r="F396">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G396">
         <f t="shared" si="229"/>
@@ -43336,13 +43336,13 @@
       </c>
       <c r="D397" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp24_wdir010_s18022</v>
+        <v>dlc13_wsp24_wdir008_s18022</v>
       </c>
       <c r="E397">
         <v>24</v>
       </c>
       <c r="F397">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G397">
         <f t="shared" si="229"/>
@@ -44091,13 +44091,13 @@
       </c>
       <c r="D404" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir350_s7023</v>
+        <v>dlc13_wsp25_wdir352_s7023</v>
       </c>
       <c r="E404">
         <v>25</v>
       </c>
       <c r="F404">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G404">
         <f t="shared" si="242"/>
@@ -44199,13 +44199,13 @@
       </c>
       <c r="D405" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir350_s8023</v>
+        <v>dlc13_wsp25_wdir352_s8023</v>
       </c>
       <c r="E405">
         <v>25</v>
       </c>
       <c r="F405">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G405">
         <f t="shared" si="242"/>
@@ -44307,13 +44307,13 @@
       </c>
       <c r="D406" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir350_s9023</v>
+        <v>dlc13_wsp25_wdir352_s9023</v>
       </c>
       <c r="E406">
         <v>25</v>
       </c>
       <c r="F406">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G406">
         <f t="shared" si="242"/>
@@ -44415,13 +44415,13 @@
       </c>
       <c r="D407" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir350_s10023</v>
+        <v>dlc13_wsp25_wdir352_s10023</v>
       </c>
       <c r="E407">
         <v>25</v>
       </c>
       <c r="F407">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G407">
         <f t="shared" si="242"/>
@@ -44523,13 +44523,13 @@
       </c>
       <c r="D408" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir350_s11023</v>
+        <v>dlc13_wsp25_wdir352_s11023</v>
       </c>
       <c r="E408">
         <v>25</v>
       </c>
       <c r="F408">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G408">
         <f t="shared" si="242"/>
@@ -44631,13 +44631,13 @@
       </c>
       <c r="D409" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir350_s12023</v>
+        <v>dlc13_wsp25_wdir352_s12023</v>
       </c>
       <c r="E409">
         <v>25</v>
       </c>
       <c r="F409">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="G409">
         <f t="shared" si="242"/>
@@ -44739,13 +44739,13 @@
       </c>
       <c r="D410" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir010_s13023</v>
+        <v>dlc13_wsp25_wdir008_s13023</v>
       </c>
       <c r="E410">
         <v>25</v>
       </c>
       <c r="F410">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G410">
         <f t="shared" si="242"/>
@@ -44847,13 +44847,13 @@
       </c>
       <c r="D411" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir010_s14023</v>
+        <v>dlc13_wsp25_wdir008_s14023</v>
       </c>
       <c r="E411">
         <v>25</v>
       </c>
       <c r="F411">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G411">
         <f t="shared" si="242"/>
@@ -44955,13 +44955,13 @@
       </c>
       <c r="D412" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir010_s15023</v>
+        <v>dlc13_wsp25_wdir008_s15023</v>
       </c>
       <c r="E412">
         <v>25</v>
       </c>
       <c r="F412">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G412">
         <f t="shared" si="242"/>
@@ -45063,13 +45063,13 @@
       </c>
       <c r="D413" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir010_s16023</v>
+        <v>dlc13_wsp25_wdir008_s16023</v>
       </c>
       <c r="E413">
         <v>25</v>
       </c>
       <c r="F413">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G413">
         <f t="shared" si="242"/>
@@ -45171,13 +45171,13 @@
       </c>
       <c r="D414" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir010_s17023</v>
+        <v>dlc13_wsp25_wdir008_s17023</v>
       </c>
       <c r="E414">
         <v>25</v>
       </c>
       <c r="F414">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G414">
         <f t="shared" si="242"/>
@@ -45279,13 +45279,13 @@
       </c>
       <c r="D415" t="str">
         <f t="shared" si="232"/>
-        <v>dlc13_wsp25_wdir010_s18023</v>
+        <v>dlc13_wsp25_wdir008_s18023</v>
       </c>
       <c r="E415">
         <v>25</v>
       </c>
       <c r="F415">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G415">
         <f t="shared" si="242"/>
